--- a/excels/s2changelog.xlsx
+++ b/excels/s2changelog.xlsx
@@ -25,7 +25,7 @@
     <t>a01002.jpg</t>
   </si>
   <si>
-    <t>agb-fsmj-jpn-1.jpg</t>
+    <t>agb-fsmj-jpn_1.jpg</t>
   </si>
   <si>
     <t>a01004.jpg</t>
@@ -49,19 +49,19 @@
     <t>a01010.jpg</t>
   </si>
   <si>
-    <t>agb-axvj-jpn-2.jpg</t>
+    <t>agb-axvj-jpn_2.jpg</t>
   </si>
   <si>
     <t>a01012.jpg</t>
   </si>
   <si>
-    <t>agb-axvj-jpn-3.jpg</t>
+    <t>agb-axvj-jpn_3.jpg</t>
   </si>
   <si>
     <t>a01014.jpg</t>
   </si>
   <si>
-    <t>agb-axvj-jpn-4.jpg</t>
+    <t>agb-axvj-jpn_4.jpg</t>
   </si>
   <si>
     <t>a01016.jpg</t>
@@ -79,13 +79,13 @@
     <t>a01020.jpg</t>
   </si>
   <si>
-    <t>agb-axpj-jpn-5.jpg</t>
+    <t>agb-axpj-jpn_5.jpg</t>
   </si>
   <si>
     <t>a01022.jpg</t>
   </si>
   <si>
-    <t>agb-b4bj-jpn-6.jpg</t>
+    <t>agb-b4bj-jpn_6.jpg</t>
   </si>
   <si>
     <t>a01024.jpg</t>
@@ -115,7 +115,7 @@
     <t>a01032.jpg</t>
   </si>
   <si>
-    <t>agb-astj-jpn-7.jpg</t>
+    <t>agb-astj-jpn_7.jpg</t>
   </si>
   <si>
     <t>a01034.jpg</t>
@@ -181,7 +181,7 @@
     <t>a01054.jpg</t>
   </si>
   <si>
-    <t>agb-br6j-jpn-8.jpg</t>
+    <t>agb-br6j-jpn_8.jpg</t>
   </si>
   <si>
     <t>a01056.jpg</t>
@@ -193,7 +193,7 @@
     <t>a01058.jpg</t>
   </si>
   <si>
-    <t>agb-a62j-jpn-9.jpg</t>
+    <t>agb-a62j-jpn_9.jpg</t>
   </si>
   <si>
     <t>a01060.jpg</t>
@@ -217,7 +217,7 @@
     <t>a01066.jpg</t>
   </si>
   <si>
-    <t>agb-bk4j-jpn-10.jpg</t>
+    <t>agb-bk4j-jpn_10.jpg</t>
   </si>
   <si>
     <t>a01068.jpg</t>
@@ -271,7 +271,7 @@
     <t>a01084.jpg</t>
   </si>
   <si>
-    <t>agb-asrj-jpn-11.jpg</t>
+    <t>agb-asrj-jpn_11.jpg</t>
   </si>
   <si>
     <t>a01086.jpg</t>
@@ -295,7 +295,7 @@
     <t>a01092.jpg</t>
   </si>
   <si>
-    <t>agb-b8cj-jpn-12.jpg</t>
+    <t>agb-b8cj-jpn_12.jpg</t>
   </si>
   <si>
     <t>a01094.jpg</t>
@@ -325,7 +325,7 @@
     <t>a01102.jpg</t>
   </si>
   <si>
-    <t>agb-bm9j-jpn-13.jpg</t>
+    <t>agb-bm9j-jpn_13.jpg</t>
   </si>
   <si>
     <t>a01104.jpg</t>
@@ -403,19 +403,19 @@
     <t>a01128.jpg</t>
   </si>
   <si>
-    <t>dmg-ataj-jpn-14.jpg</t>
+    <t>dmg-ataj-jpn_14.jpg</t>
   </si>
   <si>
     <t>a01130.jpg</t>
   </si>
   <si>
-    <t>dmg-ataj-jpn-15.jpg</t>
+    <t>dmg-ataj-jpn_15.jpg</t>
   </si>
   <si>
     <t>a01132.jpg</t>
   </si>
   <si>
-    <t>dmg-ataj-jpn-16.jpg</t>
+    <t>dmg-ataj-jpn_16.jpg</t>
   </si>
   <si>
     <t>a01134.jpg</t>
@@ -427,19 +427,19 @@
     <t>a01136.jpg</t>
   </si>
   <si>
-    <t>dmg-at3j-jpn-17.jpg</t>
+    <t>dmg-at3j-jpn_17.jpg</t>
   </si>
   <si>
     <t>a01138.jpg</t>
   </si>
   <si>
-    <t>dmg-at3j-jpn-18.jpg</t>
+    <t>dmg-at3j-jpn_18.jpg</t>
   </si>
   <si>
     <t>a01140.jpg</t>
   </si>
   <si>
-    <t>dmg-at3j-jpn-19.jpg</t>
+    <t>dmg-at3j-jpn_19.jpg</t>
   </si>
   <si>
     <t>a01142.jpg</t>
@@ -451,25 +451,25 @@
     <t>a01144.jpg</t>
   </si>
   <si>
-    <t>dmg-ytj-20.jpg</t>
+    <t>dmg-ytj_20.jpg</t>
   </si>
   <si>
     <t>a01146.jpg</t>
   </si>
   <si>
-    <t>dmg-ytj-21.jpg</t>
+    <t>dmg-ytj_21.jpg</t>
   </si>
   <si>
     <t>a01148.jpg</t>
   </si>
   <si>
-    <t>dmg-ytj-22.jpg</t>
+    <t>dmg-ytj_22.jpg</t>
   </si>
   <si>
     <t>a01150.jpg</t>
   </si>
   <si>
-    <t>dmg-ytj-23.jpg</t>
+    <t>dmg-ytj_23.jpg</t>
   </si>
   <si>
     <t>a01152.jpg</t>
@@ -493,25 +493,25 @@
     <t>a01158.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-24.jpg</t>
+    <t>dmg-mla_24.jpg</t>
   </si>
   <si>
     <t>a01160.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-25.jpg</t>
+    <t>dmg-mla_25.jpg</t>
   </si>
   <si>
     <t>a01162.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-26.jpg</t>
+    <t>dmg-mla_26.jpg</t>
   </si>
   <si>
     <t>a01164.jpg</t>
   </si>
   <si>
-    <t>dmg-mla-27.jpg</t>
+    <t>dmg-mla_27.jpg</t>
   </si>
   <si>
     <t>a01166.jpg</t>
@@ -523,19 +523,19 @@
     <t>a01168.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-28.jpg</t>
+    <t>dmg-l6j_28.jpg</t>
   </si>
   <si>
     <t>a01170.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-29.jpg</t>
+    <t>dmg-l6j_29.jpg</t>
   </si>
   <si>
     <t>a01172.jpg</t>
   </si>
   <si>
-    <t>dmg-l6j-30.jpg</t>
+    <t>dmg-l6j_30.jpg</t>
   </si>
   <si>
     <t>a01174.jpg</t>
@@ -547,13 +547,13 @@
     <t>a01176.jpg</t>
   </si>
   <si>
-    <t>dmg-vua-31.jpg</t>
+    <t>dmg-vua_31.jpg</t>
   </si>
   <si>
     <t>a01178.jpg</t>
   </si>
   <si>
-    <t>dmg-vua-32.jpg</t>
+    <t>dmg-vua_32.jpg</t>
   </si>
   <si>
     <t>a01180.jpg</t>
@@ -565,31 +565,31 @@
     <t>a01182.jpg</t>
   </si>
   <si>
-    <t>dmg-apcj-jpn-33.jpg</t>
+    <t>dmg-apcj-jpn_33.jpg</t>
   </si>
   <si>
     <t>a01184.jpg</t>
   </si>
   <si>
-    <t>dmg-apcj-jpn-34.jpg</t>
+    <t>dmg-apcj-jpn_34.jpg</t>
   </si>
   <si>
     <t>a01186.jpg</t>
   </si>
   <si>
-    <t>dmg-apcj-jpn-35.jpg</t>
+    <t>dmg-apcj-jpn_35.jpg</t>
   </si>
   <si>
     <t>a01188.jpg</t>
   </si>
   <si>
-    <t>dmg-apcj-jpn-36.jpg</t>
+    <t>dmg-apcj-jpn_36.jpg</t>
   </si>
   <si>
     <t>a01190.jpg</t>
   </si>
   <si>
-    <t>dmg-apcj-jpn-37.jpg</t>
+    <t>dmg-apcj-jpn_37.jpg</t>
   </si>
   <si>
     <t>a01192.jpg</t>
@@ -613,25 +613,25 @@
     <t>a01198.jpg</t>
   </si>
   <si>
-    <t>dmg-wja-38.jpg</t>
+    <t>dmg-wja_38.jpg</t>
   </si>
   <si>
     <t>a01200.jpg</t>
   </si>
   <si>
-    <t>dmg-wja-39.jpg</t>
+    <t>dmg-wja_39.jpg</t>
   </si>
   <si>
     <t>a01202.jpg</t>
   </si>
   <si>
-    <t>dmg-wja-40.jpg</t>
+    <t>dmg-wja_40.jpg</t>
   </si>
   <si>
     <t>a01204.jpg</t>
   </si>
   <si>
-    <t>dmg-wja-41.jpg</t>
+    <t>dmg-wja_41.jpg</t>
   </si>
   <si>
     <t>a01206.jpg</t>
@@ -649,13 +649,13 @@
     <t>a01210.jpg</t>
   </si>
   <si>
-    <t>dmg-yoj-42.jpg</t>
+    <t>dmg-yoj_42.jpg</t>
   </si>
   <si>
     <t>a01212.jpg</t>
   </si>
   <si>
-    <t>dmg-yoj-43.jpg</t>
+    <t>dmg-yoj_43.jpg</t>
   </si>
   <si>
     <t>a01214.jpg</t>
@@ -667,13 +667,13 @@
     <t>a01216.jpg</t>
   </si>
   <si>
-    <t>dmg-cij-44.jpg</t>
+    <t>dmg-cij_44.jpg</t>
   </si>
   <si>
     <t>a01218.jpg</t>
   </si>
   <si>
-    <t>dmg-cij-45.jpg</t>
+    <t>dmg-cij_45.jpg</t>
   </si>
   <si>
     <t>a01220.jpg</t>
@@ -697,19 +697,19 @@
     <t>a01226.jpg</t>
   </si>
   <si>
-    <t>dmg-kyj-46.jpg</t>
+    <t>dmg-kyj_46.jpg</t>
   </si>
   <si>
     <t>a01228.jpg</t>
   </si>
   <si>
-    <t>dmg-kyj-47.jpg</t>
+    <t>dmg-kyj_47.jpg</t>
   </si>
   <si>
     <t>a01230.jpg</t>
   </si>
   <si>
-    <t>dmg-kyj-48.jpg</t>
+    <t>dmg-kyj_48.jpg</t>
   </si>
   <si>
     <t>a01232.jpg</t>
@@ -721,7 +721,7 @@
     <t>a01234.jpg</t>
   </si>
   <si>
-    <t>dmg-akbj-jpn-49.jpg</t>
+    <t>dmg-akbj-jpn_49.jpg</t>
   </si>
   <si>
     <t>a01236.jpg</t>
@@ -733,31 +733,31 @@
     <t>a01238.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-50.jpg</t>
+    <t>dmg-apsj-jpn_50.jpg</t>
   </si>
   <si>
     <t>a01240.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-51.jpg</t>
+    <t>dmg-apsj-jpn_51.jpg</t>
   </si>
   <si>
     <t>a01242.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-52.jpg</t>
+    <t>dmg-apsj-jpn_52.jpg</t>
   </si>
   <si>
     <t>a01244.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-53.jpg</t>
+    <t>dmg-apsj-jpn_53.jpg</t>
   </si>
   <si>
     <t>a01246.jpg</t>
   </si>
   <si>
-    <t>dmg-apsj-jpn-54.jpg</t>
+    <t>dmg-apsj-jpn_54.jpg</t>
   </si>
   <si>
     <t>a01248.jpg</t>
@@ -775,37 +775,37 @@
     <t>a01252.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-55.jpg</t>
+    <t>dmg-apbj-jpn_55.jpg</t>
   </si>
   <si>
     <t>a01254.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-56.jpg</t>
+    <t>dmg-apbj-jpn_56.jpg</t>
   </si>
   <si>
     <t>a01256.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-57.jpg</t>
+    <t>dmg-apbj-jpn_57.jpg</t>
   </si>
   <si>
     <t>a01258.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-58.jpg</t>
+    <t>dmg-apbj-jpn_58.jpg</t>
   </si>
   <si>
     <t>a01260.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-59.jpg</t>
+    <t>dmg-apbj-jpn_59.jpg</t>
   </si>
   <si>
     <t>a01262.jpg</t>
   </si>
   <si>
-    <t>dmg-apbj-jpn-60.jpg</t>
+    <t>dmg-apbj-jpn_60.jpg</t>
   </si>
   <si>
     <t>a01264.jpg</t>
@@ -817,43 +817,43 @@
     <t>a01266.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-61.jpg</t>
+    <t>dmg-apaj-jpn_61.jpg</t>
   </si>
   <si>
     <t>a01268.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-62.jpg</t>
+    <t>dmg-apaj-jpn_62.jpg</t>
   </si>
   <si>
     <t>a01270.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-63.jpg</t>
+    <t>dmg-apaj-jpn_63.jpg</t>
   </si>
   <si>
     <t>a01272.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-64.jpg</t>
+    <t>dmg-apaj-jpn_64.jpg</t>
   </si>
   <si>
     <t>a01274.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-65.jpg</t>
+    <t>dmg-apaj-jpn_65.jpg</t>
   </si>
   <si>
     <t>a01276.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-66.jpg</t>
+    <t>dmg-apaj-jpn_66.jpg</t>
   </si>
   <si>
     <t>a01278.jpg</t>
   </si>
   <si>
-    <t>dmg-apaj-jpn-67.jpg</t>
+    <t>dmg-apaj-jpn_67.jpg</t>
   </si>
   <si>
     <t>a01280.jpg</t>
@@ -865,55 +865,55 @@
     <t>a01282.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-68.jpg</t>
+    <t>dmg-aaxj-jpn_68.jpg</t>
   </si>
   <si>
     <t>a01284.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-69.jpg</t>
+    <t>dmg-aaxj-jpn_69.jpg</t>
   </si>
   <si>
     <t>a01286.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-70.jpg</t>
+    <t>dmg-aaxj-jpn_70.jpg</t>
   </si>
   <si>
     <t>a01288.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-71.jpg</t>
+    <t>dmg-aaxj-jpn_71.jpg</t>
   </si>
   <si>
     <t>a01290.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-72.jpg</t>
+    <t>dmg-aaxj-jpn_72.jpg</t>
   </si>
   <si>
     <t>a01292.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-73.jpg</t>
+    <t>dmg-aaxj-jpn_73.jpg</t>
   </si>
   <si>
     <t>a01294.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-74.jpg</t>
+    <t>dmg-aaxj-jpn_74.jpg</t>
   </si>
   <si>
     <t>a01296.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-75.jpg</t>
+    <t>dmg-aaxj-jpn_75.jpg</t>
   </si>
   <si>
     <t>a01298.jpg</t>
   </si>
   <si>
-    <t>dmg-aaxj-jpn-76.jpg</t>
+    <t>dmg-aaxj-jpn_76.jpg</t>
   </si>
   <si>
     <t>a01300.jpg</t>
@@ -925,13 +925,13 @@
     <t>a01302.jpg</t>
   </si>
   <si>
-    <t>dmg-aauj-jpn-77.jpg</t>
+    <t>dmg-aauj-jpn_77.jpg</t>
   </si>
   <si>
     <t>a01304.jpg</t>
   </si>
   <si>
-    <t>dmg-aauj-jpn-78.jpg</t>
+    <t>dmg-aauj-jpn_78.jpg</t>
   </si>
   <si>
     <t>a01306.jpg</t>
@@ -943,19 +943,19 @@
     <t>a01308.jpg</t>
   </si>
   <si>
-    <t>dmg-acxj-jpn-79.jpg</t>
+    <t>dmg-acxj-jpn_79.jpg</t>
   </si>
   <si>
     <t>a01310.jpg</t>
   </si>
   <si>
-    <t>dmg-acxj-jpn-80.jpg</t>
+    <t>dmg-acxj-jpn_80.jpg</t>
   </si>
   <si>
     <t>a01312.jpg</t>
   </si>
   <si>
-    <t>dmg-acxj-jpn-81.jpg</t>
+    <t>dmg-acxj-jpn_81.jpg</t>
   </si>
   <si>
     <t>a01314.jpg</t>
@@ -967,25 +967,25 @@
     <t>a01316.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-82.jpg</t>
+    <t>dmg-tra_82.jpg</t>
   </si>
   <si>
     <t>a01318.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-83.jpg</t>
+    <t>dmg-tra_83.jpg</t>
   </si>
   <si>
     <t>a01320.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-84.jpg</t>
+    <t>dmg-tra_84.jpg</t>
   </si>
   <si>
     <t>a01322.jpg</t>
   </si>
   <si>
-    <t>dmg-tra-85.jpg</t>
+    <t>dmg-tra_85.jpg</t>
   </si>
   <si>
     <t>a01324.jpg</t>
@@ -1015,7 +1015,7 @@
     <t>a01332.jpg</t>
   </si>
   <si>
-    <t>dmg-atea-jpn-86.jpg</t>
+    <t>dmg-atea-jpn_86.jpg</t>
   </si>
   <si>
     <t>a01334.jpg</t>
@@ -1051,7 +1051,7 @@
     <t>a01344.jpg</t>
   </si>
   <si>
-    <t>dmg-eej-87.jpg</t>
+    <t>dmg-eej_87.jpg</t>
   </si>
   <si>
     <t>a01346.jpg</t>
@@ -1111,7 +1111,7 @@
     <t>a01364.jpg</t>
   </si>
   <si>
-    <t>dmg-adcj-jpn-88.jpg</t>
+    <t>dmg-adcj-jpn_88.jpg</t>
   </si>
   <si>
     <t>a01366.jpg</t>
@@ -1135,13 +1135,13 @@
     <t>a01372.jpg</t>
   </si>
   <si>
-    <t>dmg-mgj-89.jpg</t>
+    <t>dmg-mgj_89.jpg</t>
   </si>
   <si>
     <t>a01374.jpg</t>
   </si>
   <si>
-    <t>dmg-mgj-90.jpg</t>
+    <t>dmg-mgj_90.jpg</t>
   </si>
   <si>
     <t>a01376.jpg</t>
@@ -1153,7 +1153,7 @@
     <t>a01378.jpg</t>
   </si>
   <si>
-    <t>dmg-cmj-91.jpg</t>
+    <t>dmg-cmj_91.jpg</t>
   </si>
   <si>
     <t>a01380.jpg</t>
@@ -1171,7 +1171,7 @@
     <t>a01384.jpg</t>
   </si>
   <si>
-    <t>dmg-a2j-92.jpg</t>
+    <t>dmg-a2j_92.jpg</t>
   </si>
   <si>
     <t>a01386.jpg</t>
@@ -1195,7 +1195,7 @@
     <t>a01392.jpg</t>
   </si>
   <si>
-    <t>dmg-ukj-93.jpg</t>
+    <t>dmg-ukj_93.jpg</t>
   </si>
   <si>
     <t>a01394.jpg</t>
@@ -1237,7 +1237,7 @@
     <t>a01406.jpg</t>
   </si>
   <si>
-    <t>dmg-gaj-94.jpg</t>
+    <t>dmg-gaj_94.jpg</t>
   </si>
   <si>
     <t>a01408.jpg</t>
@@ -1345,7 +1345,7 @@
     <t>a01442.jpg</t>
   </si>
   <si>
-    <t>dmg-t3j-95.jpg</t>
+    <t>dmg-t3j_95.jpg</t>
   </si>
   <si>
     <t>a01444.jpg</t>
@@ -1357,7 +1357,7 @@
     <t>a01446.jpg</t>
   </si>
   <si>
-    <t>dmg-gcj-96.jpg</t>
+    <t>dmg-gcj_96.jpg</t>
   </si>
   <si>
     <t>a01448.jpg</t>
@@ -1411,19 +1411,19 @@
     <t>a01464.jpg</t>
   </si>
   <si>
-    <t>dmg-kuj-97.jpg</t>
+    <t>dmg-kuj_97.jpg</t>
   </si>
   <si>
     <t>a01466.jpg</t>
   </si>
   <si>
-    <t>dmg-kuj-98.jpg</t>
+    <t>dmg-kuj_98.jpg</t>
   </si>
   <si>
     <t>a01468.jpg</t>
   </si>
   <si>
-    <t>dmg-kuj-99.jpg</t>
+    <t>dmg-kuj_99.jpg</t>
   </si>
   <si>
     <t>a01470.jpg</t>
@@ -1489,7 +1489,7 @@
     <t>a01490.jpg</t>
   </si>
   <si>
-    <t>dmg-edj-100.jpg</t>
+    <t>dmg-edj_100.jpg</t>
   </si>
   <si>
     <t>a01492.jpg</t>
@@ -1531,7 +1531,7 @@
     <t>a01504.jpg</t>
   </si>
   <si>
-    <t>dmg-amoj-jpn-101.jpg</t>
+    <t>dmg-amoj-jpn_101.jpg</t>
   </si>
   <si>
     <t>a01506.jpg</t>
@@ -1567,7 +1567,7 @@
     <t>a01516.jpg</t>
   </si>
   <si>
-    <t>dmg-otj-102.jpg</t>
+    <t>dmg-otj_102.jpg</t>
   </si>
   <si>
     <t>a01518.jpg</t>
@@ -1597,13 +1597,13 @@
     <t>a01526.jpg</t>
   </si>
   <si>
-    <t>dmg-qqj-103.jpg</t>
+    <t>dmg-qqj_103.jpg</t>
   </si>
   <si>
     <t>a01528.jpg</t>
   </si>
   <si>
-    <t>dmg-qqj-104.jpg</t>
+    <t>dmg-qqj_104.jpg</t>
   </si>
   <si>
     <t>a01530.jpg</t>
@@ -1615,7 +1615,7 @@
     <t>a01532.jpg</t>
   </si>
   <si>
-    <t>dmg-apyj-jpn-105.jpg</t>
+    <t>dmg-apyj-jpn_105.jpg</t>
   </si>
   <si>
     <t>a01534.jpg</t>
